--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1161527.168023099</v>
+        <v>-1128724.924283935</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16794960.12241027</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10146631.01488368</v>
+        <v>10163199.96440354</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>373.0553353860151</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111.1355731937667</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9291956806182</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40.83430887687462</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>226.6986913808942</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>320.1786670946834</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>169.1954481225919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>5.802477362260765</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>114.0584779434776</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>113.8545288684623</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.85450227885472</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>14.1441627534537</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>176.189814672348</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791343072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>131.0715350177177</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1579,16 +1579,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>184.6723321165224</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561562</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1768,22 +1768,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0564930766996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>195.5075252816747</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1907,10 +1907,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225976</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>27.33721772847624</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>99.2861660332424</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2716,10 +2716,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>188.6279654955833</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432402</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3332,7 +3332,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="36">
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432343</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293448</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>435.3414999783445</v>
+        <v>1213.553380373292</v>
       </c>
       <c r="C2" t="n">
-        <v>435.3414999783445</v>
+        <v>1213.553380373292</v>
       </c>
       <c r="D2" t="n">
-        <v>435.3414999783445</v>
+        <v>836.7298092763067</v>
       </c>
       <c r="E2" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3414999783445</v>
+        <v>1235.812546817795</v>
       </c>
       <c r="Y2" t="n">
-        <v>435.3414999783445</v>
+        <v>1235.812546817795</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,10 +4410,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L3" t="n">
         <v>804.6185656731816</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.7799396378264</v>
+        <v>506.1487234826569</v>
       </c>
       <c r="C4" t="n">
-        <v>630.7799396378264</v>
+        <v>506.1487234826569</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>506.1487234826569</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>506.1487234826569</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>329.441669444413</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>163.8503944702407</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X4" t="n">
-        <v>630.7799396378264</v>
+        <v>733.5683941685486</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.7799396378264</v>
+        <v>506.1487234826569</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.498727323736</v>
+        <v>2187.718138718412</v>
       </c>
       <c r="C5" t="n">
-        <v>957.3966585475634</v>
+        <v>1749.575665901835</v>
       </c>
       <c r="D5" t="n">
-        <v>925.527277762412</v>
+        <v>1313.66588107628</v>
       </c>
       <c r="E5" t="n">
-        <v>895.7929369611113</v>
+        <v>879.8911362345751</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>452.0237066437829</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812788</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210982</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210982</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210982</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>2530.478712803775</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>2515.37665342349</v>
       </c>
       <c r="Y5" t="n">
-        <v>1013.75789376824</v>
+        <v>2511.130933763547</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083427</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750435</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937166</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1027.74307982342</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.4371178854062</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>339.4371178854062</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>339.4371178854062</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704675</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381823</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352337</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057709</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2072.201572608811</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2066.340484364103</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>339.4371178854062</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.4371178854062</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1713.149771940701</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>1698.047712560416</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.5838762389023</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>682.0221647221273</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>516.14417192365</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1233.544589050298</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1519.213920310369</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.822165643781</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1046.40249495789</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2217.256985197553</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C11" t="n">
-        <v>1779.114512380976</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.20472755542</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E11" t="n">
-        <v>909.4299827137154</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5625531229231</v>
+        <v>793.2056155771625</v>
       </c>
       <c r="G11" t="n">
-        <v>80.16472174618698</v>
+        <v>391.8077842004263</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618698</v>
+        <v>102.6776296436426</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618698</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>914.5150137043649</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1906.553445313429</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1906.553445313429</v>
+        <v>3271.658179390885</v>
       </c>
       <c r="N11" t="n">
-        <v>1906.553445313429</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="O11" t="n">
-        <v>2886.733111883735</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="P11" t="n">
-        <v>3715.042986717132</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309349</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309349</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309349</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T11" t="n">
-        <v>3875.840597392463</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U11" t="n">
-        <v>3875.840597392463</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V11" t="n">
-        <v>3875.840597392463</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W11" t="n">
-        <v>3470.985142803496</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X11" t="n">
-        <v>3051.842679382807</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2643.55655568246</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1159.222882358068</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C13" t="n">
-        <v>986.6611708412933</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D13" t="n">
-        <v>820.783178042816</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E13" t="n">
-        <v>651.0251742935533</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553095</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811371</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618698</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820125</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499735</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2516.165141652355</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2382.834838972813</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.879330843243</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1823.852926429535</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1578.461171762947</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.041501077055</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5264,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
         <v>406.885835245268</v>
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5379,16 +5379,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
         <v>1196.412455590541</v>
@@ -5397,10 +5397,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.187678435286</v>
+        <v>838.73395404594</v>
       </c>
       <c r="C16" t="n">
-        <v>917.6259669185112</v>
+        <v>666.1722425291649</v>
       </c>
       <c r="D16" t="n">
-        <v>751.7479741200339</v>
+        <v>666.1722425291649</v>
       </c>
       <c r="E16" t="n">
-        <v>581.9899703707711</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="F16" t="n">
-        <v>405.2829163325273</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G16" t="n">
-        <v>239.691641358355</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2340.778911407579</v>
       </c>
       <c r="U16" t="n">
-        <v>2313.799635050031</v>
+        <v>2062.345910660684</v>
       </c>
       <c r="V16" t="n">
-        <v>2026.844126920461</v>
+        <v>1775.390402531115</v>
       </c>
       <c r="W16" t="n">
-        <v>1754.817722506753</v>
+        <v>1503.363998117406</v>
       </c>
       <c r="X16" t="n">
-        <v>1509.425967840165</v>
+        <v>1257.972243450819</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.006297154273</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,43 +5513,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5671,52 +5671,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354713</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006607</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.808861774568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955481</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113126</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338907</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,22 +5753,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785924</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2347.72796169656</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6701,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6871,13 +6871,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835866</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197261</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>540.3167323207282</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1615.376698573588</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2772.424533784138</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>3898.155517220585</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7090,7 +7090,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7154,22 +7154,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835859</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,31 +7181,31 @@
         <v>1607.881357381595</v>
       </c>
       <c r="M38" t="n">
-        <v>1607.881357381595</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>422.1250286420301</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7391,13 +7391,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7415,22 +7415,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790893</v>
@@ -7445,7 +7445,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
         <v>3629.919912574026</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7573,19 +7573,19 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7634,7 +7634,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7661,25 +7661,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
@@ -7688,7 +7688,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7728,19 +7728,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,22 +7783,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463115</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850153</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882659</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581786</v>
@@ -7816,19 +7816,19 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.5453909710244</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>632.8234408380844</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479933</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827337</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>833.0630236930806</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>296.1546470628459</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.8499336302475</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.712721649998</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>318.3014241995211</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02184310586420679</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>-2.278086433564298e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>86.79501983797402</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>84.63380825304901</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.446659489829642</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>47.91312667565458</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627235</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>197.8082562505566</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>54.79268646174597</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>26.33579611060398</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>801915.8052111343</v>
+        <v>667533.8699050726</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>875092.7618041493</v>
+        <v>885785.3822481431</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875092.7618041493</v>
+        <v>887564.2638618166</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751731.3452182482</v>
+        <v>896995.0609148804</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896995.0609148801</v>
+        <v>896995.0609148804</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896995.0609148801</v>
+        <v>896995.0609148802</v>
       </c>
     </row>
     <row r="8">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85695.00802604209</v>
+        <v>70763.68188092412</v>
       </c>
       <c r="C2" t="n">
-        <v>93825.78098082152</v>
+        <v>93825.7809808215</v>
       </c>
       <c r="D2" t="n">
-        <v>93825.78098082152</v>
+        <v>93825.78098082151</v>
       </c>
       <c r="E2" t="n">
-        <v>77268.75107891878</v>
+        <v>92200.07722403669</v>
       </c>
       <c r="F2" t="n">
+        <v>92200.07722403669</v>
+      </c>
+      <c r="G2" t="n">
         <v>92200.07722403665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>92200.07722403666</v>
       </c>
       <c r="H2" t="n">
         <v>92200.07722403665</v>
@@ -26335,25 +26335,25 @@
         <v>92200.07722403665</v>
       </c>
       <c r="J2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403665</v>
       </c>
       <c r="K2" t="n">
-        <v>92200.07722403666</v>
+        <v>92200.07722403668</v>
       </c>
       <c r="L2" t="n">
-        <v>93825.78098082145</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="M2" t="n">
-        <v>93825.78098082155</v>
+        <v>93825.78098082151</v>
       </c>
       <c r="N2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="O2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="P2" t="n">
-        <v>93825.78098082154</v>
+        <v>93825.78098082147</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246197</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106446</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.370072525</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471779</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338188</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143543</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.421397884</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341117</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664681</v>
+        <v>124611.1870481612</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436017</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.3365340751</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
@@ -26448,16 +26448,16 @@
         <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
+        <v>81349.24995213677</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81349.24995213677</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81349.24995213677</v>
+      </c>
+      <c r="P4" t="n">
         <v>81349.24995213679</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81349.24995213679</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81349.2499521368</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81349.2499521368</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295552</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710211</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,10 +26500,10 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608973</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289231.1784373583</v>
+        <v>-255793.0525227393</v>
       </c>
       <c r="C6" t="n">
-        <v>-165427.8334029164</v>
+        <v>-208444.0230581978</v>
       </c>
       <c r="D6" t="n">
-        <v>-165427.8334029165</v>
+        <v>-147799.6880346744</v>
       </c>
       <c r="E6" t="n">
-        <v>-213152.1440547834</v>
+        <v>-235897.1932315212</v>
       </c>
       <c r="F6" t="n">
-        <v>-132657.7653758064</v>
+        <v>-53542.08401047132</v>
       </c>
       <c r="G6" t="n">
-        <v>-53518.85967108865</v>
+        <v>-53542.08401047119</v>
       </c>
       <c r="H6" t="n">
-        <v>-53518.85967108866</v>
+        <v>-53542.08401047131</v>
       </c>
       <c r="I6" t="n">
-        <v>-53518.85967108866</v>
+        <v>-53542.08401047131</v>
       </c>
       <c r="J6" t="n">
-        <v>-164533.3250160788</v>
+        <v>-164556.5493554615</v>
       </c>
       <c r="K6" t="n">
-        <v>-53518.85967108865</v>
+        <v>-107210.4110738531</v>
       </c>
       <c r="L6" t="n">
-        <v>-71589.00193440318</v>
+        <v>-80369.1756248407</v>
       </c>
       <c r="M6" t="n">
-        <v>-192397.505095289</v>
+        <v>-200616.784435257</v>
       </c>
       <c r="N6" t="n">
-        <v>-130688.2839708161</v>
+        <v>-63039.083697405</v>
       </c>
       <c r="O6" t="n">
-        <v>-63039.08369740499</v>
+        <v>-63039.08369740503</v>
       </c>
       <c r="P6" t="n">
-        <v>-63039.08369740499</v>
+        <v>-63039.08369740505</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874736</v>
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380844</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.52758331798</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977259</v>
       </c>
       <c r="E4" t="n">
-        <v>577.763164307233</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574076</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.52758331798</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977259</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702109</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574076</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.52758331798</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977259</v>
       </c>
       <c r="M4" t="n">
-        <v>577.763164307233</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574076</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.3238531300607</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>58.49535159128476</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.66884368965461</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.23914573902744</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>101.8579076853753</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>254.3933071722924</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.283475686013</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.879359176444</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>286.9523711746147</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>93.11632569722337</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="36">
@@ -30645,7 +30645,7 @@
         <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
         <v>16.23571033874736</v>
@@ -30885,7 +30885,7 @@
         <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="N46" t="n">
         <v>16.23571033874736</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.5453909710244</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>632.8234408380844</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779818</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479933</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827337</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>833.0630236930806</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>296.1546470628459</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35723,10 +35723,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908256</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564752</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>753.8499336302475</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,16 +38029,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033063</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
